--- a/F_dataset/DUD-E/MAPK2/MAPK2_prepare/MAPK2_active.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_prepare/MAPK2_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6393,846 +6393,6 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>CHEMBL2163609</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Cc1c(N[C@H]2CCCNC2)nc2ccnn2c1Nc1ccc(C(=O)NC2CCCC2)cc1</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Cc1c(N[C@H]2CCCNC2)nc2ccnn2c1Nc1ccc(C(=O)NC2CCCC2)cc1</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>433.56</v>
-      </c>
-      <c r="H103" t="n">
-        <v>4</v>
-      </c>
-      <c r="I103" t="n">
-        <v>6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5</v>
-      </c>
-      <c r="L103" t="n">
-        <v>3</v>
-      </c>
-      <c r="M103" t="n">
-        <v>95.38</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>140</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>CHEMBL2167126</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 using KKLNRTLSVA as substrate and [33P]-gamma-ATP after 30 mins by liquid scintillation counter</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CHEMBL603322</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>NC(=O)CCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>NC(=O)CCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>453.53</v>
-      </c>
-      <c r="H104" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>6</v>
-      </c>
-      <c r="L104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M104" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>41</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>CHEMBL1072653</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CHEMBL389657</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>N#Cc1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>N#Cc1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>314.35</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2</v>
-      </c>
-      <c r="K105" t="n">
-        <v>4</v>
-      </c>
-      <c r="L105" t="n">
-        <v>3</v>
-      </c>
-      <c r="M105" t="n">
-        <v>81.56999999999999</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>62</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>CHEMBL904788</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>CHEMBL3706775</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>N#Cc1c(N)cc2c(c1N)Cc1ccccc1O2</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>N#Cc1c(N)cc2c(c1N)Cc1ccccc1O2</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>237.26</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>4</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>3</v>
-      </c>
-      <c r="L106" t="n">
-        <v>3</v>
-      </c>
-      <c r="M106" t="n">
-        <v>85.06</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q106" t="n">
-        <v>560</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>CHEMBL832345</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Concentration of 50% inhibition by compound towards mitogen activated protein kinase -activated protein kinase 2</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CHEMBL245682</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ncc(C(N)=O)s4)cc3c21</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ncc(C(N)=O)s4)cc3c21</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>369.41</v>
-      </c>
-      <c r="H107" t="n">
-        <v>4</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K107" t="n">
-        <v>4</v>
-      </c>
-      <c r="L107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M107" t="n">
-        <v>129.97</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
-        <v>120</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>CHEMBL923957</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 after 30 mins by DELFIA</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>CHEMBL1783713</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>CC(C)(C)NC(=O)Nc1ccc(NC(=S)NCc2nc(C3CC3)cnc2N)cc1</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>CC(C)(C)NC(=O)Nc1ccc(NC(=S)NCc2nc(C3CC3)cnc2N)cc1</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>413.55</v>
-      </c>
-      <c r="H108" t="n">
-        <v>5</v>
-      </c>
-      <c r="I108" t="n">
-        <v>7</v>
-      </c>
-      <c r="J108" t="n">
-        <v>5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2</v>
-      </c>
-      <c r="M108" t="n">
-        <v>116.99</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q108" t="n">
-        <v>83</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>CHEMBL1786602</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 using biotin-LCAYSRALSRQLSSGVSEIRH substrate</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CHEMBL1801311</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Cn1c2c(c3c1C1(CNC1)CNC3=O)CCc1cnc(-c3ccccc3F)cc1-2</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Cn1c2c(c3c1C1(CNC1)CNC3=O)CCc1cnc(-c3ccccc3F)cc1-2</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>388.45</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>6</v>
-      </c>
-      <c r="L109" t="n">
-        <v>3</v>
-      </c>
-      <c r="M109" t="n">
-        <v>58.95</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>20</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>CHEMBL1805885</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>Inhibition of human MK2 using biotinyl-AYSRALSRQLSSGVSEIRCOOH as substrate after 45 mins by FRET analysis</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>CHEMBL1801314</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>CNCc1[nH]c2c(ccc3cnc(/C=C/c4ccccc4)cc32)c1C(=O)O</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>CNCc1[nH]c2c(ccc3cnc(/C=C/c4ccccc4)cc32)c1C(=O)O</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>357.41</v>
-      </c>
-      <c r="H110" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4</v>
-      </c>
-      <c r="M110" t="n">
-        <v>78.01000000000001</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>60</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>CHEMBL1805901</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Inhibition of human MK2 using hsp27 peptide biotinyl-AYSRALSRQLSSGVSEIRCOOH as substrate after 45 mins by FRET assay</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>CHEMBL2017463</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Cn1ccnc1CN(C(=O)c1ccc(-c2ccc(Cl)cc2)o1)c1ccc(N2CCNCC2)cc1</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Cn1ccnc1CN(C(=O)c1ccc(-c2ccc(Cl)cc2)o1)c1ccc(N2CCNCC2)cc1</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>475.98</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>6</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4</v>
-      </c>
-      <c r="M111" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>100</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>CHEMBL2019904</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 using Acam peptide as substrate incubated for 30 mins prior to substrate addition measured after 10 mins using 100 uM ATP by DELFIA assay</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>CHEMBL603469</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>439.47</v>
-      </c>
-      <c r="H112" t="n">
-        <v>3</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>8</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5</v>
-      </c>
-      <c r="M112" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>230</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>CHEMBL1244498</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>Binding affinity to MAPKAPK2</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
